--- a/Compass.WinForm/bin/Debug/JobCard_FinalInspection.xlsx
+++ b/Compass.WinForm/bin/Debug/JobCard_FinalInspection.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Compass\Compass.WinForm\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C05284F8-C6D2-405B-AF3B-9879BA7ADED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E75CDD67-9209-4A76-B7D0-E01638A1B0B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JobCard" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="54">
   <si>
     <t>Order Number 订单编号</t>
   </si>
@@ -154,9 +154,6 @@
     <t>UV system is installed and proper functioning (details in the SOP). UV warning signs have been posted on the UV door. UV系统已安装并正常运作(详见SOP)，UV警示标识已张贴在UV门上。</t>
   </si>
   <si>
-    <t>Installation brackets of UV Rack of UV hoods have been welded. UV烟罩的UV Rack的安装支架已焊接。</t>
-  </si>
-  <si>
     <t>The type of UV control of UV hoods can meet the drawing. UV烟罩的UV控制器型号符合图纸要求。</t>
   </si>
   <si>
@@ -202,6 +199,14 @@
   </si>
   <si>
     <t>Insulation resistance between control box should be greater than or equal to 50MΩ. 控制箱绝缘电阻≥50MΩ。</t>
+  </si>
+  <si>
+    <t>The appearance of the hood is smooth, and the water washing hood is water collecting and flanging 烟罩外观打胶平整，水洗烟罩集水翻边内打防水胶。</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>The mounting bracket shooting pin of the UV Rack of the UV hood has been welded and reinforced. UV烟罩的UV Rack的安装支架 射钉已焊接加固。</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -505,6 +510,60 @@
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -517,6 +576,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -525,69 +593,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -920,10 +925,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A37" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -942,726 +947,742 @@
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="8"/>
       <c r="B1" s="8"/>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="25" t="s">
+      <c r="B3" s="12"/>
+      <c r="C3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="28"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="16"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="25" t="s">
+      <c r="B4" s="12"/>
+      <c r="C4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="28"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="16"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="25" t="s">
+      <c r="B5" s="12"/>
+      <c r="C5" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="28"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="16"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="25" t="s">
+      <c r="B6" s="12"/>
+      <c r="C6" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="28"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="16"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="24"/>
-      <c r="C7" s="25" t="s">
+      <c r="B7" s="12"/>
+      <c r="C7" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="28"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="16"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="24"/>
-      <c r="C8" s="25" t="s">
+      <c r="B8" s="12"/>
+      <c r="C8" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="30"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="18"/>
     </row>
     <row r="9" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="31" t="s">
+      <c r="B9" s="20"/>
+      <c r="C9" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
       <c r="F9" s="4"/>
-      <c r="G9" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="34"/>
+      <c r="G9" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="22"/>
     </row>
     <row r="10" spans="1:8" s="6" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="21"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="25"/>
       <c r="F10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="22" t="s">
+      <c r="G10" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="H10" s="22"/>
+      <c r="H10" s="26"/>
     </row>
     <row r="11" spans="1:8" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="11"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="29"/>
       <c r="F11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" s="12"/>
+      <c r="G11" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="30"/>
     </row>
     <row r="12" spans="1:8" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="11"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="29"/>
       <c r="F12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="H12" s="12"/>
+      <c r="G12" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="30"/>
     </row>
     <row r="13" spans="1:8" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="11"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="29"/>
       <c r="F13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="H13" s="12"/>
+      <c r="G13" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="30"/>
     </row>
     <row r="14" spans="1:8" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="11"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="29"/>
       <c r="F14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="H14" s="12"/>
+      <c r="G14" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="30"/>
     </row>
     <row r="15" spans="1:8" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="11"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="29"/>
       <c r="F15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="H15" s="12"/>
+      <c r="G15" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="30"/>
     </row>
     <row r="16" spans="1:8" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="11"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="29"/>
       <c r="F16" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="H16" s="12"/>
+      <c r="G16" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" s="30"/>
     </row>
     <row r="17" spans="1:8" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="11"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="29"/>
       <c r="F17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G17" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="H17" s="12"/>
+      <c r="G17" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" s="30"/>
     </row>
     <row r="18" spans="1:8" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" s="30"/>
+    </row>
+    <row r="19" spans="1:8" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="H18" s="12"/>
-    </row>
-    <row r="19" spans="1:8" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="9" t="s">
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19" s="30"/>
+    </row>
+    <row r="20" spans="1:8" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="H19" s="12"/>
-    </row>
-    <row r="20" spans="1:8" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="9" t="s">
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" s="30"/>
+    </row>
+    <row r="21" spans="1:8" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="H20" s="12"/>
-    </row>
-    <row r="21" spans="1:8" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="9" t="s">
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21" s="30"/>
+    </row>
+    <row r="22" spans="1:8" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="H21" s="12"/>
-    </row>
-    <row r="22" spans="1:8" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="9" t="s">
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="H22" s="30"/>
+    </row>
+    <row r="23" spans="1:8" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="H22" s="12"/>
-    </row>
-    <row r="23" spans="1:8" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="9" t="s">
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="H23" s="30"/>
+    </row>
+    <row r="24" spans="1:8" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="H23" s="12"/>
-    </row>
-    <row r="24" spans="1:8" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="9" t="s">
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="H24" s="30"/>
+    </row>
+    <row r="25" spans="1:8" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="H24" s="12"/>
-    </row>
-    <row r="25" spans="1:8" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="9" t="s">
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="H25" s="30"/>
+    </row>
+    <row r="26" spans="1:8" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="H25" s="12"/>
-    </row>
-    <row r="26" spans="1:8" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="9" t="s">
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="H26" s="30"/>
+    </row>
+    <row r="27" spans="1:8" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="H26" s="12"/>
-    </row>
-    <row r="27" spans="1:8" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="9" t="s">
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="H27" s="30"/>
+    </row>
+    <row r="28" spans="1:8" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G27" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="H27" s="12"/>
-    </row>
-    <row r="28" spans="1:8" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="9" t="s">
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="H28" s="30"/>
+    </row>
+    <row r="29" spans="1:8" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" s="28"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="H29" s="30"/>
+    </row>
+    <row r="30" spans="1:8" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G28" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="H28" s="12"/>
-    </row>
-    <row r="29" spans="1:8" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="9" t="s">
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="H30" s="30"/>
+    </row>
+    <row r="31" spans="1:8" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="H29" s="12"/>
-    </row>
-    <row r="30" spans="1:8" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="9" t="s">
+      <c r="B31" s="28"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="H31" s="30"/>
+    </row>
+    <row r="32" spans="1:8" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G30" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="H30" s="12"/>
-    </row>
-    <row r="31" spans="1:8" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="9" t="s">
+      <c r="B32" s="28"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="H32" s="30"/>
+    </row>
+    <row r="33" spans="1:8" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G31" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="H31" s="12"/>
-    </row>
-    <row r="32" spans="1:8" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="9" t="s">
+      <c r="B33" s="28"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="H33" s="30"/>
+    </row>
+    <row r="34" spans="1:8" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G32" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="H32" s="12"/>
-    </row>
-    <row r="33" spans="1:8" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="9" t="s">
+      <c r="B34" s="28"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="H34" s="30"/>
+    </row>
+    <row r="35" spans="1:8" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G33" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="H33" s="12"/>
-    </row>
-    <row r="34" spans="1:8" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="9" t="s">
+      <c r="B35" s="28"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="H35" s="30"/>
+    </row>
+    <row r="36" spans="1:8" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G34" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="H34" s="12"/>
-    </row>
-    <row r="35" spans="1:8" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="16" t="s">
+      <c r="B36" s="32"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="H36" s="30"/>
+    </row>
+    <row r="37" spans="1:8" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G35" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="H35" s="12"/>
-    </row>
-    <row r="36" spans="1:8" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="9" t="s">
+      <c r="B37" s="28"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="H37" s="30"/>
+    </row>
+    <row r="38" spans="1:8" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="H36" s="12"/>
-    </row>
-    <row r="37" spans="1:8" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="9" t="s">
+      <c r="B38" s="28"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="7" t="s">
+      <c r="G38" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="H38" s="30"/>
+    </row>
+    <row r="39" spans="1:8" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="B39" s="28"/>
+      <c r="C39" s="28"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G39" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="H39" s="30"/>
+    </row>
+    <row r="40" spans="1:8" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="B40" s="28"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G40" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="H40" s="30"/>
+    </row>
+    <row r="41" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="G37" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="H37" s="12"/>
-    </row>
-    <row r="38" spans="1:8" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G38" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="H38" s="12"/>
-    </row>
-    <row r="39" spans="1:8" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G39" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="H39" s="12"/>
-    </row>
-    <row r="40" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="9" t="s">
+      <c r="B41" s="28"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="H41" s="30"/>
+    </row>
+    <row r="42" spans="1:8" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="H40" s="12"/>
-    </row>
-    <row r="41" spans="1:8" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="9" t="s">
+      <c r="B42" s="28"/>
+      <c r="C42" s="28"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="H42" s="30"/>
+    </row>
+    <row r="43" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G41" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="H41" s="12"/>
-    </row>
-    <row r="42" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="14"/>
-      <c r="H42" s="15"/>
+      <c r="B43" s="35"/>
+      <c r="C43" s="35"/>
+      <c r="D43" s="35"/>
+      <c r="E43" s="35"/>
+      <c r="F43" s="35"/>
+      <c r="G43" s="35"/>
+      <c r="H43" s="36"/>
     </row>
   </sheetData>
-  <mergeCells count="81">
-    <mergeCell ref="C1:H2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:H4"/>
+  <mergeCells count="83">
+    <mergeCell ref="A41:E41"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="A42:E42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="A43:H43"/>
+    <mergeCell ref="A38:E38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="A39:E39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="A40:E40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="A35:E35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="A37:E37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="A33:E33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="A34:E34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:H9"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:H5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:H6"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:H7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="A27:E27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="A29:E29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="A30:E30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="A33:E33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="A34:E34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="A35:E35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="A37:E37"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="A38:E38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="A39:E39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="A40:E40"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="A41:E41"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="A42:H42"/>
+    <mergeCell ref="C1:H2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:H4"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
